--- a/medicine/Mort/Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire/Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire.xlsx
+++ b/medicine/Mort/Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire/Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_le_jour_de_leur_anniversaire</t>
+          <t>Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page propose une liste de personnalités mortes le jour de leur anniversaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_le_jour_de_leur_anniversaire</t>
+          <t>Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude publiée en 1997, portant sur la population suisse morte de causes naturelles entre le 1er janvier 1969 et le 31 décembre 1992, met en évidence que dans cet échantillon, la mortalité est maximale le jour de l'anniversaire[1].
-Une étude publiée en 2009 s'intéresse à l'augmentation de la mortalité le jour de leur anniversaire chez les joueurs de la Ligue majeure de baseball[2].
-Selon une étude publiée en juin 2012, dans la revue scientifique Annals of Epidemiology (en)[3], il y a plus de risque de mourir le jour de son anniversaire, notamment chez les personnes de plus de 60 ans. L'étude a analysé les cas de 2 millions de personnes mortes le jour de leur anniversaire entre 1969 et 2008, et en a conclu que le risque augmentait de 14 %. Elle explique cela notamment à cause des « facteurs psychologiques », se traduisant par une hausse des suicides de 34,9 % particulièrement chez les hommes. Sont également mentionnées, des augmentations de 28,5 % des accidents mortels et de 44 % de décès par des chutes en tout genre. Elle note aussi des hausses de 18,6 % des crises cardiaques (particulièrement chez les hommes), et de 21,5 % d'attaques cérébrales en plus (particulièrement chez les femmes)[4],[5].
-Le professeur de psychologie Richard Wiseman explique que pour certains chercheurs, cela est dû à des excès de boissons et de nourritures qui provoquent ensuite la mort. D'autres parlent de l'effet nocebo : « Vous savez que la mort n'est pas loin et vous vous accrochez jusqu'au jour J. Et puis, après, c'est le moment de partir. »[4],[5].
-En décembre 2014, une nouvelle étude menée par l'université de Chicago[6], montre que le risque de mourir le jour de son anniversaire, est plus élevé de 6,7 %. Elle analyse que les 20-29 ans sont les plus touchés, en émettant que c'est « peut être le signe d’une fête d'anniversaire qui tourne mal ». Elle note également que chez les octogénaires, le taux baisse à 4,6 %[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude publiée en 1997, portant sur la population suisse morte de causes naturelles entre le 1er janvier 1969 et le 31 décembre 1992, met en évidence que dans cet échantillon, la mortalité est maximale le jour de l'anniversaire.
+Une étude publiée en 2009 s'intéresse à l'augmentation de la mortalité le jour de leur anniversaire chez les joueurs de la Ligue majeure de baseball.
+Selon une étude publiée en juin 2012, dans la revue scientifique Annals of Epidemiology (en), il y a plus de risque de mourir le jour de son anniversaire, notamment chez les personnes de plus de 60 ans. L'étude a analysé les cas de 2 millions de personnes mortes le jour de leur anniversaire entre 1969 et 2008, et en a conclu que le risque augmentait de 14 %. Elle explique cela notamment à cause des « facteurs psychologiques », se traduisant par une hausse des suicides de 34,9 % particulièrement chez les hommes. Sont également mentionnées, des augmentations de 28,5 % des accidents mortels et de 44 % de décès par des chutes en tout genre. Elle note aussi des hausses de 18,6 % des crises cardiaques (particulièrement chez les hommes), et de 21,5 % d'attaques cérébrales en plus (particulièrement chez les femmes),.
+Le professeur de psychologie Richard Wiseman explique que pour certains chercheurs, cela est dû à des excès de boissons et de nourritures qui provoquent ensuite la mort. D'autres parlent de l'effet nocebo : « Vous savez que la mort n'est pas loin et vous vous accrochez jusqu'au jour J. Et puis, après, c'est le moment de partir. »,.
+En décembre 2014, une nouvelle étude menée par l'université de Chicago, montre que le risque de mourir le jour de son anniversaire, est plus élevé de 6,7 %. Elle analyse que les 20-29 ans sont les plus touchés, en émettant que c'est « peut être le signe d’une fête d'anniversaire qui tourne mal ». Elle note également que chez les octogénaires, le taux baisse à 4,6 %,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_le_jour_de_leur_anniversaire</t>
+          <t>Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_mortes_le_jour_de_leur_anniversaire</t>
+          <t>Liste_de_personnalités_mortes_le_jour_de_leur_anniversaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Morts le jour de leur naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alexandre Stuart (16 octobre 1430), duc de Rothesay, cinquième enfant de Jacques Ier d'Écosse et de Jeanne Beaufort[195].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alexandre Stuart (16 octobre 1430), duc de Rothesay, cinquième enfant de Jacques Ier d'Écosse et de Jeanne Beaufort.
 François de France (4 décembre 1466), sixième enfant du roi de France Louis XI et de la reine Charlotte de Savoie.
 Jeanne de France (24 juin 1556), dixième enfant du roi de France Henri II et de la reine Catherine de Médicis.
 Marie-Caroline d'Autriche (17 septembre 1748), neuvième enfant de l'empereur du Saint-Empire François Ier de la reine Marie-Thérèse d'Autriche.</t>
